--- a/Client/Dev/PandaVillage/Assets/Tables/tool_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/tool_data.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,22 @@
   </si>
   <si>
     <t>fishingRod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유 들통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milkPail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양털 가위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,8 +353,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,20 +639,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,13 +842,50 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="1">
+        <v>6006</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6007</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Dev/PandaVillage/Assets/Tables/tool_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/tool_data.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연습용 낚싯대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hoe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,46 @@
   </si>
   <si>
     <t>양털 가위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대나무 막대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물가에서 사용하여 물고기를 잡을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양으로부터 양털을 모을 때 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅을 파고 밭을 갈 때 사용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작물에 물을 줄 때 사용됩니다. 물이 있는 곳 어디에서라도 다시 채울 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 베는데 사용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌을 부술 때 사용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장고가 있다면 잔디를 잘라서 건초를 만들 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물의 젖을 짤 때 사용됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,10 +690,11 @@
     <col min="5" max="5" width="19.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="8" max="8" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,8 +716,11 @@
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -702,8 +742,11 @@
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6000</v>
       </c>
@@ -723,10 +766,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6001</v>
       </c>
@@ -746,10 +792,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6002</v>
       </c>
@@ -769,10 +818,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6003</v>
       </c>
@@ -792,10 +844,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6004</v>
       </c>
@@ -815,15 +870,18 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -838,15 +896,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6006</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <v>6</v>
@@ -861,15 +922,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6007</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -884,7 +948,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/tool_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/tool_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF51B74-6DF1-4222-B473-6AEABFF5CC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="7710"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>현</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>2000</v>
@@ -780,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>2000</v>
@@ -806,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>2000</v>
@@ -832,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>2000</v>
@@ -858,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>2000</v>
@@ -884,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>25</v>
@@ -910,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
@@ -936,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
